--- a/raw_data/20200818_saline/20200818_Sensor0_Test_22.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_22.xlsx
@@ -1,1324 +1,1740 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB368E8-E166-4486-AB61-4F760049703B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>18903.173075</v>
+        <v>18903.173074999999</v>
       </c>
       <c r="B2" s="1">
-        <v>5.250881</v>
+        <v>5.2508809999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>897.774000</v>
+        <v>897.774</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.470000</v>
+        <v>-195.47</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>18913.277114</v>
       </c>
       <c r="G2" s="1">
-        <v>5.253688</v>
+        <v>5.2536880000000004</v>
       </c>
       <c r="H2" s="1">
-        <v>914.890000</v>
+        <v>914.89</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.418000</v>
+        <v>-165.41800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>18923.516488</v>
+        <v>18923.516488000001</v>
       </c>
       <c r="L2" s="1">
         <v>5.256532</v>
       </c>
       <c r="M2" s="1">
-        <v>936.568000</v>
+        <v>936.56799999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.614000</v>
+        <v>-118.614</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>18933.689930</v>
+        <v>18933.68993</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.259358</v>
+        <v>5.2593579999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>942.989000</v>
+        <v>942.98900000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.292000</v>
+        <v>-103.292</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>18943.877262</v>
+        <v>18943.877262000002</v>
       </c>
       <c r="V2" s="1">
-        <v>5.262188</v>
+        <v>5.2621880000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>949.236000</v>
+        <v>949.23599999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.627100</v>
+        <v>-89.627099999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>18953.654923</v>
+        <v>18953.654922999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.264904</v>
+        <v>5.2649039999999996</v>
       </c>
       <c r="AB2" s="1">
-        <v>956.353000</v>
+        <v>956.35299999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.420900</v>
+        <v>-80.420900000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>18963.920098</v>
+        <v>18963.920097999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.267756</v>
+        <v>5.2677560000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>961.297000</v>
+        <v>961.29700000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.148100</v>
+        <v>-80.148099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>18974.346997</v>
+        <v>18974.346997000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.270652</v>
+        <v>5.2706520000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>969.293000</v>
+        <v>969.29300000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.209000</v>
+        <v>-88.209000000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>18984.969816</v>
+        <v>18984.969816000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.273603</v>
+        <v>5.2736029999999996</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.620000</v>
+        <v>978.62</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.219000</v>
+        <v>-103.21899999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>18996.013750</v>
+        <v>18996.013749999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.276670</v>
+        <v>5.2766700000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.148000</v>
+        <v>990.14800000000002</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.122000</v>
+        <v>-125.122</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>19007.170268</v>
+        <v>19007.170268000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.279770</v>
+        <v>5.2797700000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.908000</v>
+        <v>999.90800000000002</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.045000</v>
+        <v>-144.04499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>19018.180940</v>
+        <v>19018.180939999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.282828</v>
+        <v>5.2828280000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1045.670000</v>
+        <v>1045.67</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.612000</v>
+        <v>-229.61199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>19029.537340</v>
+        <v>19029.537339999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.285983</v>
+        <v>5.2859829999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1125.760000</v>
+        <v>1125.76</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.768000</v>
+        <v>-366.76799999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>19040.967649</v>
+        <v>19040.967648999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.289158</v>
+        <v>5.2891579999999996</v>
       </c>
       <c r="BP2" s="1">
-        <v>1257.980000</v>
+        <v>1257.98</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.873000</v>
+        <v>-578.87300000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>19051.705535</v>
+        <v>19051.705535000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.292140</v>
+        <v>5.2921399999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1406.890000</v>
+        <v>1406.89</v>
       </c>
       <c r="BV2" s="1">
-        <v>-805.826000</v>
+        <v>-805.82600000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>19062.253953</v>
+        <v>19062.253952999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.295071</v>
+        <v>5.2950710000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1570.000000</v>
+        <v>1570</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1042.670000</v>
+        <v>-1042.67</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>19073.197187</v>
+        <v>19073.197187000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.298110</v>
+        <v>5.2981100000000003</v>
       </c>
       <c r="CE2" s="1">
-        <v>1983.510000</v>
+        <v>1983.51</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1595.040000</v>
+        <v>-1595.04</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>18903.320914</v>
       </c>
       <c r="B3" s="1">
-        <v>5.250922</v>
+        <v>5.2509220000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>897.884000</v>
+        <v>897.88400000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.326000</v>
+        <v>-195.32599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>18913.696197</v>
+        <v>18913.696197000001</v>
       </c>
       <c r="G3" s="1">
-        <v>5.253804</v>
+        <v>5.2538039999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>914.512000</v>
+        <v>914.51199999999994</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.409000</v>
+        <v>-165.40899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>18923.864684</v>
       </c>
       <c r="L3" s="1">
-        <v>5.256629</v>
+        <v>5.2566290000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>936.416000</v>
+        <v>936.41600000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.573000</v>
+        <v>-118.57299999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>18934.033162</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.259454</v>
+        <v>5.2594539999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>942.984000</v>
+        <v>942.98400000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.308000</v>
+        <v>-103.30800000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>18944.254220</v>
+        <v>18944.254219999999</v>
       </c>
       <c r="V3" s="1">
-        <v>5.262293</v>
+        <v>5.2622929999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>949.209000</v>
+        <v>949.20899999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.696800</v>
+        <v>-89.696799999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>18954.080463</v>
+        <v>18954.080462999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.265022</v>
+        <v>5.2650220000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>956.319000</v>
+        <v>956.31899999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.424300</v>
+        <v>-80.424300000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>18964.403699</v>
+        <v>18964.403698999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.267890</v>
+        <v>5.2678900000000004</v>
       </c>
       <c r="AG3" s="1">
-        <v>961.290000</v>
+        <v>961.29</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.203000</v>
+        <v>-80.203000000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>18974.765124</v>
+        <v>18974.765124000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.270768</v>
+        <v>5.2707680000000003</v>
       </c>
       <c r="AL3" s="1">
-        <v>969.265000</v>
+        <v>969.26499999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.183700</v>
+        <v>-88.183700000000002</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>18985.359176</v>
+        <v>18985.359176000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.273711</v>
+        <v>5.2737109999999996</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.633000</v>
+        <v>978.63300000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.233000</v>
+        <v>-103.233</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>18996.378329</v>
+        <v>18996.378328999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.276772</v>
+        <v>5.2767720000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.159000</v>
+        <v>990.15899999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.120000</v>
+        <v>-125.12</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>19007.577960</v>
+        <v>19007.577959999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.279883</v>
+        <v>5.2798829999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.889000</v>
+        <v>999.88900000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.032000</v>
+        <v>-144.03200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>19018.957674</v>
+        <v>19018.957674000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.283044</v>
+        <v>5.2830440000000003</v>
       </c>
       <c r="BF3" s="1">
-        <v>1045.670000</v>
+        <v>1045.67</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.646000</v>
+        <v>-229.64599999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>19029.954475</v>
+        <v>19029.954474999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>5.286098</v>
       </c>
       <c r="BK3" s="1">
-        <v>1125.750000</v>
+        <v>1125.75</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.786000</v>
+        <v>-366.786</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>19041.374364</v>
+        <v>19041.374363999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.289271</v>
+        <v>5.2892710000000003</v>
       </c>
       <c r="BP3" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.971000</v>
+        <v>-578.971</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>19052.170286</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.292270</v>
+        <v>5.2922700000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1406.920000</v>
+        <v>1406.92</v>
       </c>
       <c r="BV3" s="1">
-        <v>-805.935000</v>
+        <v>-805.93499999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>19062.738048</v>
+        <v>19062.738047999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.295205</v>
+        <v>5.2952050000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1569.810000</v>
+        <v>1569.81</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1042.760000</v>
+        <v>-1042.76</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>19074.106849</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.298363</v>
+        <v>5.2983630000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1984.200000</v>
+        <v>1984.2</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1597.040000</v>
+        <v>-1597.04</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>18903.664611</v>
       </c>
       <c r="B4" s="1">
-        <v>5.251018</v>
+        <v>5.2510180000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>897.877000</v>
+        <v>897.87699999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.250000</v>
+        <v>-195.25</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>18914.038473</v>
+        <v>18914.038473000001</v>
       </c>
       <c r="G4" s="1">
-        <v>5.253900</v>
+        <v>5.2538999999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>915.052000</v>
+        <v>915.05200000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.939000</v>
+        <v>-165.93899999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>18924.210391</v>
+        <v>18924.210391000001</v>
       </c>
       <c r="L4" s="1">
-        <v>5.256725</v>
+        <v>5.2567250000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>936.511000</v>
+        <v>936.51099999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.455000</v>
+        <v>-118.455</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>18934.454298</v>
+        <v>18934.454298000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.259571</v>
+        <v>5.2595710000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>942.944000</v>
+        <v>942.94399999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.312000</v>
+        <v>-103.312</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>18944.677805</v>
+        <v>18944.677804999999</v>
       </c>
       <c r="V4" s="1">
-        <v>5.262411</v>
+        <v>5.2624110000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>949.283000</v>
+        <v>949.28300000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.708500</v>
+        <v>-89.708500000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>18954.414767</v>
+        <v>18954.414766999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.265115</v>
+        <v>5.2651149999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>956.287000</v>
+        <v>956.28700000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.482300</v>
+        <v>-80.482299999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>18964.659634</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.267961</v>
+        <v>5.2679609999999997</v>
       </c>
       <c r="AG4" s="1">
-        <v>961.384000</v>
+        <v>961.38400000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.944000</v>
+        <v>-79.944000000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>18975.112858</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.270865</v>
+        <v>5.2708649999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>969.280000</v>
+        <v>969.28</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.188400</v>
+        <v>-88.188400000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>18985.716295</v>
+        <v>18985.716294999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.273810</v>
+        <v>5.2738100000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.634000</v>
+        <v>978.63400000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.226000</v>
+        <v>-103.226</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>18996.742392</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.276873</v>
+        <v>5.2768730000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.159000</v>
+        <v>990.15899999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.127000</v>
+        <v>-125.127</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>19008.306087</v>
+        <v>19008.306087000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.280085</v>
+        <v>5.2800849999999997</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.873000</v>
+        <v>999.87300000000005</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.036000</v>
+        <v>-144.036</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>19019.320745</v>
+        <v>19019.320745000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.283145</v>
+        <v>5.2831450000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1045.680000</v>
+        <v>1045.68</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.624000</v>
+        <v>-229.624</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>19030.312587</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.286198</v>
+        <v>5.2861979999999997</v>
       </c>
       <c r="BK4" s="1">
-        <v>1125.730000</v>
+        <v>1125.73</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.795000</v>
+        <v>-366.79500000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>19041.795963</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.289388</v>
+        <v>5.2893879999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.969000</v>
+        <v>-578.96900000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>19052.890012</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.292469</v>
+        <v>5.2924689999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>1406.900000</v>
+        <v>1406.9</v>
       </c>
       <c r="BV4" s="1">
-        <v>-806.124000</v>
+        <v>-806.12400000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>19063.475630</v>
+        <v>19063.475630000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.295410</v>
+        <v>5.2954100000000004</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1569.910000</v>
+        <v>1569.91</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1042.840000</v>
+        <v>-1042.8399999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>19074.331072</v>
+        <v>19074.331072000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.298425</v>
+        <v>5.2984249999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1984.070000</v>
+        <v>1984.07</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1596.760000</v>
+        <v>-1596.76</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>18904.006354</v>
+        <v>18904.006354000001</v>
       </c>
       <c r="B5" s="1">
-        <v>5.251113</v>
+        <v>5.2511130000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>897.791000</v>
+        <v>897.79100000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.232000</v>
+        <v>-195.232</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>18914.460563</v>
+        <v>18914.460563000001</v>
       </c>
       <c r="G5" s="1">
-        <v>5.254017</v>
+        <v>5.2540170000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>915.093000</v>
+        <v>915.09299999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.583000</v>
+        <v>-165.583</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>18924.628518</v>
+        <v>18924.628518000001</v>
       </c>
       <c r="L5" s="1">
-        <v>5.256841</v>
+        <v>5.2568409999999997</v>
       </c>
       <c r="M5" s="1">
-        <v>936.446000</v>
+        <v>936.44600000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.493000</v>
+        <v>-118.49299999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>18934.721609</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.259645</v>
+        <v>5.2596449999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>942.921000</v>
+        <v>942.92100000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.293000</v>
+        <v>-103.29300000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>18944.942675</v>
+        <v>18944.942674999998</v>
       </c>
       <c r="V5" s="1">
-        <v>5.262484</v>
+        <v>5.2624839999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>949.293000</v>
+        <v>949.29300000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.721000</v>
+        <v>-89.721000000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>18954.763454</v>
@@ -1327,270 +1743,270 @@
         <v>5.265212</v>
       </c>
       <c r="AB5" s="1">
-        <v>956.341000</v>
+        <v>956.34100000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.400900</v>
+        <v>-80.400899999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>18964.991494</v>
+        <v>18964.991494000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.268053</v>
+        <v>5.2680530000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>961.335000</v>
+        <v>961.33500000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.140600</v>
+        <v>-80.140600000000006</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>18975.462003</v>
+        <v>18975.462003000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.270962</v>
+        <v>5.2709619999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>969.279000</v>
+        <v>969.279</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.180000</v>
+        <v>-88.18</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>18986.440485</v>
+        <v>18986.440484999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.274011</v>
+        <v>5.2740109999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.604000</v>
+        <v>978.60400000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.222000</v>
+        <v>-103.22199999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>18997.474950</v>
+        <v>18997.47495</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.277076</v>
+        <v>5.2770760000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.160000</v>
+        <v>990.16</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.106000</v>
+        <v>-125.10599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>19008.681592</v>
+        <v>19008.681592000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>5.280189</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.876000</v>
+        <v>999.87599999999998</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.004000</v>
+        <v>-144.00399999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>19019.678361</v>
+        <v>19019.678360999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.283244</v>
+        <v>5.2832439999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1045.680000</v>
+        <v>1045.68</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.659000</v>
+        <v>-229.65899999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>19030.687068</v>
+        <v>19030.687067999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.286302</v>
+        <v>5.2863020000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1125.730000</v>
+        <v>1125.73</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.807000</v>
+        <v>-366.80700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>19042.492346</v>
+        <v>19042.492345999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.289581</v>
+        <v>5.2895810000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1257.970000</v>
+        <v>1257.97</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.931000</v>
+        <v>-578.93100000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>19053.015469</v>
+        <v>19053.015469000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.292504</v>
+        <v>5.2925040000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1406.750000</v>
+        <v>1406.75</v>
       </c>
       <c r="BV5" s="1">
-        <v>-806.129000</v>
+        <v>-806.12900000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>19063.633327</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.295454</v>
+        <v>5.2954540000000003</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1569.940000</v>
+        <v>1569.94</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1042.840000</v>
+        <v>-1042.8399999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>19074.851038</v>
+        <v>19074.851038000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.298570</v>
+        <v>5.2985699999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1984.030000</v>
+        <v>1984.03</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1595.320000</v>
+        <v>-1595.32</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>18904.424481</v>
+        <v>18904.424480999998</v>
       </c>
       <c r="B6" s="1">
-        <v>5.251229</v>
+        <v>5.2512290000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>897.773000</v>
+        <v>897.77300000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.329000</v>
+        <v>-195.32900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>18914.740276</v>
       </c>
       <c r="G6" s="1">
-        <v>5.254095</v>
+        <v>5.2540950000000004</v>
       </c>
       <c r="H6" s="1">
-        <v>914.808000</v>
+        <v>914.80799999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.665000</v>
+        <v>-165.66499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>18924.923141</v>
+        <v>18924.923140999999</v>
       </c>
       <c r="L6" s="1">
-        <v>5.256923</v>
+        <v>5.2569229999999996</v>
       </c>
       <c r="M6" s="1">
-        <v>936.560000</v>
+        <v>936.56</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.526000</v>
+        <v>-118.526</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>18935.083192</v>
+        <v>18935.083191999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.259745</v>
+        <v>5.2597449999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>942.952000</v>
+        <v>942.952</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.262000</v>
+        <v>-103.262</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>18945.285899</v>
+        <v>18945.285898999999</v>
       </c>
       <c r="V6" s="1">
-        <v>5.262579</v>
+        <v>5.2625789999999997</v>
       </c>
       <c r="W6" s="1">
-        <v>949.222000</v>
+        <v>949.22199999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.777000</v>
+        <v>-89.777000000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>18955.112638</v>
+        <v>18955.112637999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.265309</v>
+        <v>5.2653090000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>956.341000</v>
+        <v>956.34100000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.378600</v>
+        <v>-80.378600000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>18965.675936</v>
@@ -1599,360 +2015,360 @@
         <v>5.268243</v>
       </c>
       <c r="AG6" s="1">
-        <v>961.307000</v>
+        <v>961.30700000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.180000</v>
+        <v>-80.180000000000007</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>18976.155906</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.271154</v>
+        <v>5.2711540000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>969.296000</v>
+        <v>969.29600000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.162800</v>
+        <v>-88.162800000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>18986.824389</v>
+        <v>18986.824389000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.274118</v>
+        <v>5.2741179999999996</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.606000</v>
+        <v>978.60599999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.233000</v>
+        <v>-103.233</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>18997.863318</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.277184</v>
+        <v>5.2771840000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.162000</v>
+        <v>990.16200000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.118000</v>
+        <v>-125.11799999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>19009.058520</v>
+        <v>19009.058519999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.280294</v>
+        <v>5.2802939999999996</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.901000</v>
+        <v>999.90099999999995</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.031000</v>
+        <v>-144.03100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>19020.344984</v>
+        <v>19020.344983999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.283429</v>
+        <v>5.2834289999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1045.680000</v>
+        <v>1045.68</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.629000</v>
+        <v>-229.62899999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>19031.410235</v>
+        <v>19031.410234999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.286503</v>
+        <v>5.2865029999999997</v>
       </c>
       <c r="BK6" s="1">
-        <v>1125.750000</v>
+        <v>1125.75</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.800000</v>
+        <v>-366.8</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>19042.612411</v>
+        <v>19042.612410999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.289615</v>
+        <v>5.2896150000000004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1257.970000</v>
+        <v>1257.97</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.926000</v>
+        <v>-578.92600000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>19053.428176</v>
+        <v>19053.428176000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.292619</v>
+        <v>5.2926190000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1406.730000</v>
+        <v>1406.73</v>
       </c>
       <c r="BV6" s="1">
-        <v>-806.310000</v>
+        <v>-806.31</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>19064.058398</v>
+        <v>19064.058398000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.295572</v>
+        <v>5.2955719999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1569.950000</v>
+        <v>1569.95</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1042.840000</v>
+        <v>-1042.8399999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>19075.367183</v>
+        <v>19075.367182999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.298713</v>
+        <v>5.2987130000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1982.570000</v>
+        <v>1982.57</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1595.700000</v>
+        <v>-1595.7</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>18904.691361</v>
+        <v>18904.691361000001</v>
       </c>
       <c r="B7" s="1">
-        <v>5.251303</v>
+        <v>5.2513030000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>897.782000</v>
+        <v>897.78200000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.353000</v>
+        <v>-195.35300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>18915.087507</v>
       </c>
       <c r="G7" s="1">
-        <v>5.254191</v>
+        <v>5.2541909999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>914.689000</v>
+        <v>914.68899999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.405000</v>
+        <v>-165.405</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>18925.268854</v>
+        <v>18925.268854000002</v>
       </c>
       <c r="L7" s="1">
-        <v>5.257019</v>
+        <v>5.2570189999999997</v>
       </c>
       <c r="M7" s="1">
-        <v>936.488000</v>
+        <v>936.48800000000006</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.577000</v>
+        <v>-118.577</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>18935.428905</v>
+        <v>18935.428905000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.259841</v>
+        <v>5.2598409999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>942.951000</v>
+        <v>942.95100000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.325000</v>
+        <v>-103.325</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>18945.629659</v>
+        <v>18945.629658999998</v>
       </c>
       <c r="V7" s="1">
-        <v>5.262675</v>
+        <v>5.2626749999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>949.344000</v>
+        <v>949.34400000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.765100</v>
+        <v>-89.765100000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>18955.808557</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.265502</v>
+        <v>5.2655019999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>956.442000</v>
+        <v>956.44200000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.412500</v>
+        <v>-80.412499999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>18966.018672</v>
+        <v>18966.018671999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.268339</v>
+        <v>5.2683390000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>961.333000</v>
+        <v>961.33299999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.116100</v>
+        <v>-80.116100000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>18976.507570</v>
+        <v>18976.507570000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.271252</v>
+        <v>5.2712519999999996</v>
       </c>
       <c r="AL7" s="1">
-        <v>969.266000</v>
+        <v>969.26599999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.166100</v>
+        <v>-88.1661</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>18987.208761</v>
+        <v>18987.208761000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.274225</v>
+        <v>5.2742250000000004</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.630000</v>
+        <v>978.63</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.208000</v>
+        <v>-103.208</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>18998.534436</v>
+        <v>18998.534436000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.277371</v>
+        <v>5.2773709999999996</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.163000</v>
+        <v>990.16300000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.105000</v>
+        <v>-125.105</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>19009.728117</v>
+        <v>19009.728116999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.280480</v>
+        <v>5.2804799999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.916000</v>
+        <v>999.91600000000005</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.031000</v>
+        <v>-144.03100000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>19020.795848</v>
+        <v>19020.795848000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.283554</v>
+        <v>5.2835539999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1045.670000</v>
+        <v>1045.67</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.642000</v>
+        <v>-229.642</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>19031.841257</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.286623</v>
+        <v>5.2866229999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1125.740000</v>
+        <v>1125.74</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.812000</v>
+        <v>-366.81200000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>19043.037978</v>
@@ -1961,422 +2377,422 @@
         <v>5.289733</v>
       </c>
       <c r="BP7" s="1">
-        <v>1257.990000</v>
+        <v>1257.99</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.018000</v>
+        <v>-579.01800000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>19053.857676</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.292738</v>
+        <v>5.2927379999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1406.600000</v>
+        <v>1406.6</v>
       </c>
       <c r="BV7" s="1">
-        <v>-806.212000</v>
+        <v>-806.21199999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>19064.482975</v>
+        <v>19064.482974999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.295690</v>
+        <v>5.2956899999999996</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1569.880000</v>
+        <v>1569.88</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1042.810000</v>
+        <v>-1042.81</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>19075.888515</v>
+        <v>19075.888514999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.298858</v>
+        <v>5.2988580000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1983.310000</v>
+        <v>1983.31</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1597.320000</v>
+        <v>-1597.32</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>18905.032081</v>
+        <v>18905.032081000001</v>
       </c>
       <c r="B8" s="1">
         <v>5.251398</v>
       </c>
       <c r="C8" s="1">
-        <v>897.832000</v>
+        <v>897.83199999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.365000</v>
+        <v>-195.36500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>18915.430706</v>
+        <v>18915.430705999999</v>
       </c>
       <c r="G8" s="1">
-        <v>5.254286</v>
+        <v>5.2542859999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>914.629000</v>
+        <v>914.62900000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.617000</v>
+        <v>-165.61699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>18925.615093</v>
       </c>
       <c r="L8" s="1">
-        <v>5.257115</v>
+        <v>5.2571149999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>936.506000</v>
+        <v>936.50599999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.448000</v>
+        <v>-118.44799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>18936.127767</v>
+        <v>18936.127767000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.260035</v>
+        <v>5.2600350000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>942.967000</v>
+        <v>942.96699999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.319000</v>
+        <v>-103.319</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>18946.318074</v>
+        <v>18946.318073999999</v>
       </c>
       <c r="V8" s="1">
-        <v>5.262866</v>
+        <v>5.2628659999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>949.324000</v>
+        <v>949.32399999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.699300</v>
+        <v>-89.699299999999994</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>18956.159725</v>
+        <v>18956.159725000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.265600</v>
+        <v>5.2656000000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>956.445000</v>
+        <v>956.44500000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.530200</v>
+        <v>-80.530199999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>18966.364383</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.268435</v>
+        <v>5.2684350000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>961.318000</v>
+        <v>961.31799999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.175800</v>
+        <v>-80.175799999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>18976.852289</v>
+        <v>18976.852288999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.271348</v>
+        <v>5.2713479999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>969.275000</v>
+        <v>969.27499999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.192100</v>
+        <v>-88.192099999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>18987.881826</v>
+        <v>18987.881826000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.274412</v>
+        <v>5.2744119999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.617000</v>
+        <v>978.61699999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.226000</v>
+        <v>-103.226</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>18998.991716</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.277498</v>
+        <v>5.2774979999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.152000</v>
+        <v>990.15200000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.117000</v>
+        <v>-125.117</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>19010.143796</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.280595</v>
+        <v>5.2805949999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.901000</v>
+        <v>999.90099999999995</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.041000</v>
+        <v>-144.041</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>19021.156471</v>
+        <v>19021.156470999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.283655</v>
+        <v>5.2836550000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1045.680000</v>
+        <v>1045.68</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.619000</v>
+        <v>-229.619</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>19032.227145</v>
+        <v>19032.227145000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.286730</v>
+        <v>5.2867300000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1125.790000</v>
+        <v>1125.79</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.770000</v>
+        <v>-366.77</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>19043.431274</v>
+        <v>19043.431273999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.289842</v>
+        <v>5.2898420000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1257.980000</v>
+        <v>1257.98</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.940000</v>
+        <v>-578.94000000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>19054.273355</v>
+        <v>19054.273355000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.292854</v>
+        <v>5.2928540000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1406.470000</v>
+        <v>1406.47</v>
       </c>
       <c r="BV8" s="1">
-        <v>-806.328000</v>
+        <v>-806.32799999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>19064.998853</v>
+        <v>19064.998853000001</v>
       </c>
       <c r="BY8" s="1">
         <v>5.295833</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1569.750000</v>
+        <v>1569.75</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1042.810000</v>
+        <v>-1042.81</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>19076.402830</v>
+        <v>19076.402829999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.299001</v>
+        <v>5.2990009999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>1982.660000</v>
+        <v>1982.66</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1596.890000</v>
+        <v>-1596.89</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>18905.370880</v>
+        <v>18905.370879999999</v>
       </c>
       <c r="B9" s="1">
-        <v>5.251492</v>
+        <v>5.2514919999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>897.924000</v>
+        <v>897.92399999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.422000</v>
+        <v>-195.422</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>18916.118690</v>
+        <v>18916.118689999999</v>
       </c>
       <c r="G9" s="1">
-        <v>5.254477</v>
+        <v>5.2544769999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>914.893000</v>
+        <v>914.89300000000003</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.481000</v>
+        <v>-165.48099999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>18926.305496</v>
+        <v>18926.305496000001</v>
       </c>
       <c r="L9" s="1">
         <v>5.257307</v>
       </c>
       <c r="M9" s="1">
-        <v>936.717000</v>
+        <v>936.71699999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.434000</v>
+        <v>-118.434</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>18936.473974</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.260132</v>
+        <v>5.2601319999999996</v>
       </c>
       <c r="R9" s="1">
-        <v>942.953000</v>
+        <v>942.95299999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.307000</v>
+        <v>-103.307</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>18946.668249</v>
+        <v>18946.668248999998</v>
       </c>
       <c r="V9" s="1">
-        <v>5.262963</v>
+        <v>5.2629630000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>949.289000</v>
+        <v>949.28899999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.726100</v>
+        <v>-89.726100000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>18956.508876</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.265697</v>
+        <v>5.2656970000000003</v>
       </c>
       <c r="AB9" s="1">
-        <v>956.387000</v>
+        <v>956.38699999999994</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.323100</v>
+        <v>-80.323099999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>18967.020627</v>
+        <v>18967.020627000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.268617</v>
+        <v>5.2686169999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>961.303000</v>
+        <v>961.303</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.136700</v>
+        <v>-80.136700000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>18977.500096</v>
@@ -2385,679 +2801,679 @@
         <v>5.271528</v>
       </c>
       <c r="AL9" s="1">
-        <v>969.286000</v>
+        <v>969.28599999999994</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.210300</v>
+        <v>-88.210300000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>18988.290065</v>
+        <v>18988.290065000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.274525</v>
+        <v>5.2745249999999997</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.606000</v>
+        <v>978.60599999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.232000</v>
+        <v>-103.232</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>18999.350820</v>
+        <v>18999.35082</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.277597</v>
+        <v>5.2775970000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.141000</v>
+        <v>990.14099999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.127000</v>
+        <v>-125.127</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>19010.519237</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.280700</v>
+        <v>5.2807000000000004</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.887000</v>
+        <v>999.88699999999994</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.048000</v>
+        <v>-144.048</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>19021.518518</v>
+        <v>19021.518518000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.283755</v>
+        <v>5.2837550000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1045.680000</v>
+        <v>1045.68</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.646000</v>
+        <v>-229.64599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>19032.648279</v>
+        <v>19032.648279000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.286847</v>
+        <v>5.2868469999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1125.730000</v>
+        <v>1125.73</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.798000</v>
+        <v>-366.798</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>19043.855385</v>
+        <v>19043.855384999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.289960</v>
+        <v>5.2899599999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1257.980000</v>
+        <v>1257.98</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.949000</v>
+        <v>-578.94899999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>19054.685002</v>
+        <v>19054.685001999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.292968</v>
+        <v>5.2929680000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1406.320000</v>
+        <v>1406.32</v>
       </c>
       <c r="BV9" s="1">
-        <v>-806.279000</v>
+        <v>-806.279</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>19065.343073</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.295929</v>
+        <v>5.2959290000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1569.960000</v>
+        <v>1569.96</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1042.870000</v>
+        <v>-1042.8699999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>19076.958349</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.299155</v>
+        <v>5.2991549999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1982.780000</v>
+        <v>1982.78</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1595.490000</v>
+        <v>-1595.49</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>18906.054831</v>
+        <v>18906.054831000001</v>
       </c>
       <c r="B10" s="1">
-        <v>5.251682</v>
+        <v>5.2516819999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>897.647000</v>
+        <v>897.64700000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.458000</v>
+        <v>-195.458</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>18916.466353</v>
       </c>
       <c r="G10" s="1">
-        <v>5.254574</v>
+        <v>5.2545739999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>914.586000</v>
+        <v>914.58600000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.565000</v>
+        <v>-165.565</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>18926.652691</v>
+        <v>18926.652690999999</v>
       </c>
       <c r="L10" s="1">
-        <v>5.257404</v>
+        <v>5.2574040000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>936.664000</v>
+        <v>936.66399999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.672000</v>
+        <v>-118.672</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>18936.821206</v>
+        <v>18936.821206000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.260228</v>
+        <v>5.2602279999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>942.956000</v>
+        <v>942.95600000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.318000</v>
+        <v>-103.318</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>18947.012227</v>
+        <v>18947.012226999999</v>
       </c>
       <c r="V10" s="1">
-        <v>5.263059</v>
+        <v>5.2630590000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>949.255000</v>
+        <v>949.255</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.715600</v>
+        <v>-89.715599999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>18957.158171</v>
+        <v>18957.158170999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.265877</v>
+        <v>5.2658769999999997</v>
       </c>
       <c r="AB10" s="1">
-        <v>956.330000</v>
+        <v>956.33</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.373300</v>
+        <v>-80.3733</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>18967.398542</v>
+        <v>18967.398541999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.268722</v>
+        <v>5.2687220000000003</v>
       </c>
       <c r="AG10" s="1">
-        <v>961.338000</v>
+        <v>961.33799999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.183100</v>
+        <v>-80.183099999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>18977.897887</v>
+        <v>18977.897886999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.271638</v>
+        <v>5.2716380000000003</v>
       </c>
       <c r="AL10" s="1">
-        <v>969.286000</v>
+        <v>969.28599999999994</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.193000</v>
+        <v>-88.192999999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>18988.676913</v>
+        <v>18988.676912999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.274632</v>
+        <v>5.2746320000000004</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.604000</v>
+        <v>978.60400000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.210000</v>
+        <v>-103.21</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>18999.717859</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.277699</v>
+        <v>5.2776990000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.160000</v>
+        <v>990.16</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.114000</v>
+        <v>-125.114</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>19010.896725</v>
+        <v>19010.896724999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>5.280805</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.889000</v>
+        <v>999.88900000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.064000</v>
+        <v>-144.06399999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>19021.939136</v>
+        <v>19021.939136000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.283872</v>
+        <v>5.2838719999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1045.810000</v>
+        <v>1045.81</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.679000</v>
+        <v>-229.679</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>19032.977129</v>
+        <v>19032.977128999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.286938</v>
+        <v>5.2869380000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1125.740000</v>
+        <v>1125.74</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.800000</v>
+        <v>-366.8</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>19044.253161</v>
+        <v>19044.253161000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.290070</v>
+        <v>5.2900700000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1257.970000</v>
+        <v>1257.97</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.969000</v>
+        <v>-578.96900000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>19055.100651</v>
+        <v>19055.100651000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.293084</v>
+        <v>5.2930840000000003</v>
       </c>
       <c r="BU10" s="1">
-        <v>1406.230000</v>
+        <v>1406.23</v>
       </c>
       <c r="BV10" s="1">
-        <v>-806.174000</v>
+        <v>-806.17399999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>19065.767612</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.296047</v>
+        <v>5.2960469999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1570.060000</v>
+        <v>1570.06</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1042.910000</v>
+        <v>-1042.9100000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>19077.488076</v>
+        <v>19077.488076000001</v>
       </c>
       <c r="CD10" s="1">
         <v>5.299302</v>
       </c>
       <c r="CE10" s="1">
-        <v>1982.950000</v>
+        <v>1982.95</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1597.060000</v>
+        <v>-1597.06</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>18906.396607</v>
+        <v>18906.396606999999</v>
       </c>
       <c r="B11" s="1">
-        <v>5.251777</v>
+        <v>5.2517769999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>897.804000</v>
+        <v>897.80399999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.354000</v>
+        <v>-195.35400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>18916.809089</v>
+        <v>18916.809088999998</v>
       </c>
       <c r="G11" s="1">
-        <v>5.254669</v>
+        <v>5.2546689999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>914.634000</v>
+        <v>914.63400000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.435000</v>
+        <v>-165.435</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>18926.999395</v>
+        <v>18926.999394999999</v>
       </c>
       <c r="L11" s="1">
-        <v>5.257500</v>
+        <v>5.2575000000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>936.649000</v>
+        <v>936.649</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.421000</v>
+        <v>-118.42100000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>18937.474406</v>
+        <v>18937.474406000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.260410</v>
+        <v>5.2604100000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>942.960000</v>
+        <v>942.96</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.270000</v>
+        <v>-103.27</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>18947.505993</v>
+        <v>18947.505992999999</v>
       </c>
       <c r="V11" s="1">
-        <v>5.263196</v>
+        <v>5.2631959999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>949.256000</v>
+        <v>949.25599999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.712400</v>
+        <v>-89.712400000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>18957.551499</v>
+        <v>18957.551499000001</v>
       </c>
       <c r="AA11" s="1">
         <v>5.265987</v>
       </c>
       <c r="AB11" s="1">
-        <v>956.323000</v>
+        <v>956.32299999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.362300</v>
+        <v>-80.362300000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>18967.743897</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.268818</v>
+        <v>5.2688179999999996</v>
       </c>
       <c r="AG11" s="1">
-        <v>961.311000</v>
+        <v>961.31100000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.155300</v>
+        <v>-80.155299999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>18978.249024</v>
+        <v>18978.249024000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.271736</v>
+        <v>5.2717359999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>969.280000</v>
+        <v>969.28</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.174100</v>
+        <v>-88.174099999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>18989.038034</v>
+        <v>18989.038034000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.274733</v>
+        <v>5.2747330000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.611000</v>
+        <v>978.61099999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.222000</v>
+        <v>-103.22199999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>19000.143922</v>
+        <v>19000.143921999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.277818</v>
+        <v>5.2778179999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.169000</v>
+        <v>990.16899999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.117000</v>
+        <v>-125.117</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>19011.310884</v>
+        <v>19011.310883999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.280920</v>
+        <v>5.2809200000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.892000</v>
+        <v>999.89200000000005</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.043000</v>
+        <v>-144.04300000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>19022.466373</v>
+        <v>19022.466372999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.284018</v>
+        <v>5.2840179999999997</v>
       </c>
       <c r="BF11" s="1">
-        <v>1045.690000</v>
+        <v>1045.69</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.631000</v>
+        <v>-229.631</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>19033.355543</v>
+        <v>19033.355543000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.287043</v>
+        <v>5.2870429999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1125.760000</v>
+        <v>1125.76</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.791000</v>
+        <v>-366.791</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>19044.675240</v>
+        <v>19044.67524</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.290188</v>
+        <v>5.2901879999999997</v>
       </c>
       <c r="BP11" s="1">
-        <v>1258.000000</v>
+        <v>1258</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.967000</v>
+        <v>-578.96699999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>19055.512857</v>
+        <v>19055.512857000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.293198</v>
+        <v>5.2931980000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1406.200000</v>
+        <v>1406.2</v>
       </c>
       <c r="BV11" s="1">
-        <v>-806.011000</v>
+        <v>-806.01099999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>19066.192683</v>
+        <v>19066.192683000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.296165</v>
+        <v>5.2961650000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1569.920000</v>
+        <v>1569.92</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1042.860000</v>
+        <v>-1042.8599999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>19078.005436</v>
+        <v>19078.005435999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.299446</v>
+        <v>5.2994459999999997</v>
       </c>
       <c r="CE11" s="1">
-        <v>1984.500000</v>
+        <v>1984.5</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1596.710000</v>
+        <v>-1596.71</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>18906.740302</v>
+        <v>18906.740301999998</v>
       </c>
       <c r="B12" s="1">
-        <v>5.251872</v>
+        <v>5.2518719999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>897.943000</v>
+        <v>897.94299999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.723000</v>
+        <v>-195.72300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>18917.454415</v>
@@ -3066,2506 +3482,2506 @@
         <v>5.254848</v>
       </c>
       <c r="H12" s="1">
-        <v>914.508000</v>
+        <v>914.50800000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.419000</v>
+        <v>-165.41900000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>18927.653122</v>
       </c>
       <c r="L12" s="1">
-        <v>5.257681</v>
+        <v>5.2576809999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>936.588000</v>
+        <v>936.58799999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.710000</v>
+        <v>-118.71</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>18937.867733</v>
+        <v>18937.867732999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.260519</v>
+        <v>5.2605190000000004</v>
       </c>
       <c r="R12" s="1">
-        <v>942.979000</v>
+        <v>942.97900000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.269000</v>
+        <v>-103.26900000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>18947.701416</v>
       </c>
       <c r="V12" s="1">
-        <v>5.263250</v>
+        <v>5.2632500000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>949.266000</v>
+        <v>949.26599999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.671400</v>
+        <v>-89.671400000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>18957.903131</v>
+        <v>18957.903130999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.266084</v>
+        <v>5.2660840000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>956.332000</v>
+        <v>956.33199999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.431400</v>
+        <v>-80.431399999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>18968.092444</v>
+        <v>18968.092444000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.268915</v>
+        <v>5.2689149999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>961.301000</v>
+        <v>961.30100000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.137200</v>
+        <v>-80.137200000000007</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>18978.598207</v>
+        <v>18978.598206999999</v>
       </c>
       <c r="AK12" s="1">
         <v>5.271833</v>
       </c>
       <c r="AL12" s="1">
-        <v>969.294000</v>
+        <v>969.29399999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.208400</v>
+        <v>-88.208399999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>18989.451664</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.274848</v>
+        <v>5.2748480000000004</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.613000</v>
+        <v>978.61300000000006</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.221000</v>
+        <v>-103.221</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>19000.447010</v>
+        <v>19000.44701</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.277902</v>
+        <v>5.2779020000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.174000</v>
+        <v>990.17399999999998</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.128000</v>
+        <v>-125.128</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>19011.615396</v>
+        <v>19011.615396000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.281004</v>
+        <v>5.2810040000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.895000</v>
+        <v>999.89499999999998</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.046000</v>
+        <v>-144.04599999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>19022.846806</v>
+        <v>19022.846806000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.284124</v>
+        <v>5.2841240000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1045.690000</v>
+        <v>1045.69</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.629000</v>
+        <v>-229.62899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>19033.739447</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.287150</v>
+        <v>5.2871499999999996</v>
       </c>
       <c r="BK12" s="1">
-        <v>1125.750000</v>
+        <v>1125.75</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.807000</v>
+        <v>-366.80700000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>19045.070305</v>
+        <v>19045.070305000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.290297</v>
+        <v>5.2902969999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.992000</v>
+        <v>-578.99199999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>19055.928504</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.293313</v>
+        <v>5.2933130000000004</v>
       </c>
       <c r="BU12" s="1">
-        <v>1406.200000</v>
+        <v>1406.2</v>
       </c>
       <c r="BV12" s="1">
-        <v>-805.890000</v>
+        <v>-805.89</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>19066.640074</v>
+        <v>19066.640073999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.296289</v>
+        <v>5.2962889999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1570.030000</v>
+        <v>1570.03</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1042.820000</v>
+        <v>-1042.82</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>19078.522235</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.299590</v>
+        <v>5.2995900000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1984.330000</v>
+        <v>1984.33</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1595.280000</v>
+        <v>-1595.28</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>18907.382621</v>
+        <v>18907.382621000001</v>
       </c>
       <c r="B13" s="1">
-        <v>5.252051</v>
+        <v>5.2520509999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>897.899000</v>
+        <v>897.899</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.623000</v>
+        <v>-195.62299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>18917.845231</v>
+        <v>18917.845230999999</v>
       </c>
       <c r="G13" s="1">
-        <v>5.254957</v>
+        <v>5.2549570000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>914.751000</v>
+        <v>914.75099999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.640000</v>
+        <v>-165.64</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>18928.034050</v>
+        <v>18928.034049999998</v>
       </c>
       <c r="L13" s="1">
-        <v>5.257787</v>
+        <v>5.2577870000000004</v>
       </c>
       <c r="M13" s="1">
-        <v>936.564000</v>
+        <v>936.56399999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.408000</v>
+        <v>-118.408</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>18938.220420</v>
+        <v>18938.220420000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.260617</v>
+        <v>5.2606169999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>942.970000</v>
+        <v>942.97</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.293000</v>
+        <v>-103.29300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>18948.044152</v>
+        <v>18948.044151999999</v>
       </c>
       <c r="V13" s="1">
-        <v>5.263346</v>
+        <v>5.2633460000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>949.254000</v>
+        <v>949.25400000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.665900</v>
+        <v>-89.665899999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>18958.251818</v>
+        <v>18958.251818000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.266181</v>
+        <v>5.2661809999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>956.451000</v>
+        <v>956.45100000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.432700</v>
+        <v>-80.432699999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>18968.507102</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.269030</v>
+        <v>5.2690299999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>961.238000</v>
+        <v>961.23800000000006</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.159000</v>
+        <v>-80.159000000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>18979.009390</v>
+        <v>18979.009389999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.271947</v>
+        <v>5.2719469999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>969.276000</v>
+        <v>969.27599999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.215400</v>
+        <v>-88.215400000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>18989.757202</v>
+        <v>18989.757202000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.274933</v>
+        <v>5.2749329999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.624000</v>
+        <v>978.62400000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.230000</v>
+        <v>-103.23</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>19000.814019</v>
+        <v>19000.814019000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.278004</v>
+        <v>5.2780040000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.176000</v>
+        <v>990.17600000000004</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.112000</v>
+        <v>-125.11199999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>19011.972516</v>
+        <v>19011.972516000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.281103</v>
+        <v>5.2811029999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.901000</v>
+        <v>999.90099999999995</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.052000</v>
+        <v>-144.05199999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>19023.207396</v>
+        <v>19023.207396000002</v>
       </c>
       <c r="BE13" s="1">
         <v>5.284224</v>
       </c>
       <c r="BF13" s="1">
-        <v>1045.680000</v>
+        <v>1045.68</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.609000</v>
+        <v>-229.60900000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>19034.501797</v>
+        <v>19034.501797000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.287362</v>
+        <v>5.2873619999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1125.750000</v>
+        <v>1125.75</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.793000</v>
+        <v>-366.79300000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>19045.490699</v>
+        <v>19045.490699000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.290414</v>
+        <v>5.2904140000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.993000</v>
+        <v>-578.99300000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>19056.346600</v>
+        <v>19056.346600000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.293430</v>
+        <v>5.2934299999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1406.210000</v>
+        <v>1406.21</v>
       </c>
       <c r="BV13" s="1">
-        <v>-805.734000</v>
+        <v>-805.73400000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>19067.072123</v>
+        <v>19067.072123000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.296409</v>
+        <v>5.2964089999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1569.820000</v>
+        <v>1569.82</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1042.920000</v>
+        <v>-1042.92</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>19079.042538</v>
+        <v>19079.042538000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.299734</v>
+        <v>5.2997339999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1982.830000</v>
+        <v>1982.83</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1596.610000</v>
+        <v>-1596.61</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>18907.764046</v>
       </c>
       <c r="B14" s="1">
-        <v>5.252157</v>
+        <v>5.2521570000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>897.876000</v>
+        <v>897.87599999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.543000</v>
+        <v>-195.54300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>18918.188991</v>
+        <v>18918.188990999999</v>
       </c>
       <c r="G14" s="1">
-        <v>5.255052</v>
+        <v>5.2550520000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>914.686000</v>
+        <v>914.68600000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.563000</v>
+        <v>-165.56299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>18928.381745</v>
+        <v>18928.381744999999</v>
       </c>
       <c r="L14" s="1">
-        <v>5.257884</v>
+        <v>5.2578839999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>936.507000</v>
+        <v>936.50699999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.526000</v>
+        <v>-118.526</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>18938.566100</v>
+        <v>18938.5661</v>
       </c>
       <c r="Q14" s="1">
         <v>5.260713</v>
       </c>
       <c r="R14" s="1">
-        <v>942.937000</v>
+        <v>942.93700000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.307000</v>
+        <v>-103.307</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>18948.461294</v>
+        <v>18948.461294000001</v>
       </c>
       <c r="V14" s="1">
-        <v>5.263461</v>
+        <v>5.2634610000000004</v>
       </c>
       <c r="W14" s="1">
-        <v>949.310000</v>
+        <v>949.31</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.745600</v>
+        <v>-89.745599999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>18958.669946</v>
+        <v>18958.669946000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.266297</v>
+        <v>5.2662969999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>956.429000</v>
+        <v>956.42899999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.468400</v>
+        <v>-80.468400000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>18968.787837</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.269108</v>
+        <v>5.2691080000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>961.292000</v>
+        <v>961.29200000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.162700</v>
+        <v>-80.162700000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>18979.305006</v>
+        <v>18979.305005999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.272029</v>
+        <v>5.2720289999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>969.276000</v>
+        <v>969.27599999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.167900</v>
+        <v>-88.167900000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>18990.117297</v>
+        <v>18990.117297000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.275033</v>
+        <v>5.2750329999999996</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.610000</v>
+        <v>978.61</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.211000</v>
+        <v>-103.211</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>19001.179105</v>
+        <v>19001.179104999999</v>
       </c>
       <c r="AU14" s="1">
         <v>5.278105</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.149000</v>
+        <v>990.149</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.121000</v>
+        <v>-125.121</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>19012.331123</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.281203</v>
+        <v>5.2812029999999996</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.893000</v>
+        <v>999.89300000000003</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.042000</v>
+        <v>-144.042</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>19023.930067</v>
+        <v>19023.930067000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.284425</v>
+        <v>5.2844249999999997</v>
       </c>
       <c r="BF14" s="1">
-        <v>1045.670000</v>
+        <v>1045.67</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.645000</v>
+        <v>-229.64500000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>19034.880741</v>
+        <v>19034.880741000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.287467</v>
+        <v>5.2874670000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1125.740000</v>
+        <v>1125.74</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.778000</v>
+        <v>-366.77800000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>19045.889473</v>
+        <v>19045.889472999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.290525</v>
+        <v>5.2905249999999997</v>
       </c>
       <c r="BP14" s="1">
-        <v>1258.010000</v>
+        <v>1258.01</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.958000</v>
+        <v>-578.95799999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>19056.759308</v>
+        <v>19056.759308000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.293544</v>
+        <v>5.2935439999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1406.260000</v>
+        <v>1406.26</v>
       </c>
       <c r="BV14" s="1">
-        <v>-805.660000</v>
+        <v>-805.66</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>19067.797737</v>
+        <v>19067.797737000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.296610</v>
+        <v>5.2966100000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1569.920000</v>
+        <v>1569.92</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1042.870000</v>
+        <v>-1042.8699999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>19079.880312</v>
+        <v>19079.880312000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.299967</v>
+        <v>5.2999669999999997</v>
       </c>
       <c r="CE14" s="1">
-        <v>1983.440000</v>
+        <v>1983.44</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1595.380000</v>
+        <v>-1595.38</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>18908.102812</v>
+        <v>18908.102812000001</v>
       </c>
       <c r="B15" s="1">
-        <v>5.252251</v>
+        <v>5.2522510000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>897.766000</v>
+        <v>897.76599999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.183000</v>
+        <v>-195.18299999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>18918.533685</v>
+        <v>18918.533684999999</v>
       </c>
       <c r="G15" s="1">
-        <v>5.255148</v>
+        <v>5.2551480000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>914.541000</v>
+        <v>914.54100000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.382000</v>
+        <v>-165.38200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>18928.725969</v>
+        <v>18928.725968999999</v>
       </c>
       <c r="L15" s="1">
-        <v>5.257979</v>
+        <v>5.2579789999999997</v>
       </c>
       <c r="M15" s="1">
-        <v>936.464000</v>
+        <v>936.46400000000006</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.475000</v>
+        <v>-118.47499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>18938.983269</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.260829</v>
+        <v>5.2608290000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>942.908000</v>
+        <v>942.90800000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.341000</v>
+        <v>-103.34099999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>18948.749990</v>
+        <v>18948.74999</v>
       </c>
       <c r="V15" s="1">
-        <v>5.263542</v>
+        <v>5.2635420000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>949.198000</v>
+        <v>949.19799999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.660800</v>
+        <v>-89.660799999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>18958.959114</v>
+        <v>18958.959114000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.266378</v>
+        <v>5.2663779999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>956.274000</v>
+        <v>956.274</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.400100</v>
+        <v>-80.400099999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>18969.131565</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.269203</v>
+        <v>5.2692030000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>961.319000</v>
+        <v>961.31899999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.159800</v>
+        <v>-80.159800000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>18979.656206</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.272127</v>
+        <v>5.2721270000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>969.289000</v>
+        <v>969.28899999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.211200</v>
+        <v>-88.211200000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>18990.475060</v>
+        <v>18990.475060000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.275132</v>
+        <v>5.2751320000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.615000</v>
+        <v>978.61500000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.209000</v>
+        <v>-103.209</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>19001.907556</v>
+        <v>19001.907555999998</v>
       </c>
       <c r="AU15" s="1">
         <v>5.278308</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.158000</v>
+        <v>990.15800000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.139000</v>
+        <v>-125.139</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>19013.050323</v>
+        <v>19013.050322999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.281403</v>
+        <v>5.2814030000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.900000</v>
+        <v>999.9</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.048000</v>
+        <v>-144.048</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>19024.320418</v>
+        <v>19024.320417999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.284533</v>
+        <v>5.2845329999999997</v>
       </c>
       <c r="BF15" s="1">
-        <v>1045.680000</v>
+        <v>1045.68</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.607000</v>
+        <v>-229.607</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>19035.253732</v>
+        <v>19035.253732000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.287570</v>
+        <v>5.2875699999999997</v>
       </c>
       <c r="BK15" s="1">
-        <v>1125.750000</v>
+        <v>1125.75</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.795000</v>
+        <v>-366.79500000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>19046.311542</v>
+        <v>19046.311541999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.290642</v>
+        <v>5.2906420000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1257.970000</v>
+        <v>1257.97</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.949000</v>
+        <v>-578.94899999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>19057.476983</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.293744</v>
+        <v>5.2937440000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1406.440000</v>
+        <v>1406.44</v>
       </c>
       <c r="BV15" s="1">
-        <v>-805.625000</v>
+        <v>-805.625</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>19067.942569</v>
+        <v>19067.942568999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.296651</v>
+        <v>5.2966509999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1569.910000</v>
+        <v>1569.91</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1042.870000</v>
+        <v>-1042.8699999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>19080.117061</v>
+        <v>19080.117061000001</v>
       </c>
       <c r="CD15" s="1">
         <v>5.300033</v>
       </c>
       <c r="CE15" s="1">
-        <v>1983.190000</v>
+        <v>1983.19</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1595.020000</v>
+        <v>-1595.02</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>18908.444587</v>
+        <v>18908.444587000002</v>
       </c>
       <c r="B16" s="1">
-        <v>5.252346</v>
+        <v>5.2523460000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>897.889000</v>
+        <v>897.88900000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.466000</v>
+        <v>-195.46600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>18918.951311</v>
+        <v>18918.951311000001</v>
       </c>
       <c r="G16" s="1">
-        <v>5.255264</v>
+        <v>5.2552640000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>914.177000</v>
+        <v>914.17700000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.600000</v>
+        <v>-165.6</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>18929.141120</v>
+        <v>18929.14112</v>
       </c>
       <c r="L16" s="1">
         <v>5.258095</v>
       </c>
       <c r="M16" s="1">
-        <v>936.602000</v>
+        <v>936.60199999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.538000</v>
+        <v>-118.538</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>18939.264999</v>
+        <v>18939.264998999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.260907</v>
+        <v>5.2609069999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>942.929000</v>
+        <v>942.92899999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.267000</v>
+        <v>-103.267</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>18949.095457</v>
+        <v>18949.095456999999</v>
       </c>
       <c r="V16" s="1">
-        <v>5.263638</v>
+        <v>5.2636380000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>949.325000</v>
+        <v>949.32500000000005</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.672600</v>
+        <v>-89.672600000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>18959.304824</v>
+        <v>18959.304823999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.266474</v>
+        <v>5.2664739999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>956.364000</v>
+        <v>956.36400000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.365100</v>
+        <v>-80.365099999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>18969.473309</v>
+        <v>18969.473309000001</v>
       </c>
       <c r="AF16" s="1">
         <v>5.269298</v>
       </c>
       <c r="AG16" s="1">
-        <v>961.334000</v>
+        <v>961.33399999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.225300</v>
+        <v>-80.225300000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>18980.005357</v>
+        <v>18980.005356999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.272224</v>
+        <v>5.2722239999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>969.279000</v>
+        <v>969.279</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.222800</v>
+        <v>-88.222800000000007</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>18991.196590</v>
+        <v>18991.19659</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.275332</v>
+        <v>5.2753319999999997</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.614000</v>
+        <v>978.61400000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.197000</v>
+        <v>-103.197</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>19002.296587</v>
+        <v>19002.296587000001</v>
       </c>
       <c r="AU16" s="1">
         <v>5.278416</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.176000</v>
+        <v>990.17600000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.117000</v>
+        <v>-125.117</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>19013.415377</v>
+        <v>19013.415377000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>5.281504</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.881000</v>
+        <v>999.88099999999997</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.035000</v>
+        <v>-144.035</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>19024.678563</v>
+        <v>19024.678563000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.284633</v>
+        <v>5.2846330000000004</v>
       </c>
       <c r="BF16" s="1">
-        <v>1045.700000</v>
+        <v>1045.7</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.639000</v>
+        <v>-229.63900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>19035.959044</v>
+        <v>19035.959043999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.287766</v>
+        <v>5.2877660000000004</v>
       </c>
       <c r="BK16" s="1">
-        <v>1125.730000</v>
+        <v>1125.73</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.767000</v>
+        <v>-366.767</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>19047.023797</v>
+        <v>19047.023797000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.290840</v>
+        <v>5.2908400000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1257.980000</v>
+        <v>1257.98</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.966000</v>
+        <v>-578.96600000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>19057.605944</v>
+        <v>19057.605943999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.293779</v>
+        <v>5.2937789999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1406.460000</v>
+        <v>1406.46</v>
       </c>
       <c r="BV16" s="1">
-        <v>-805.547000</v>
+        <v>-805.54700000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>19068.367640</v>
+        <v>19068.36764</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.296769</v>
+        <v>5.2967690000000003</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1569.980000</v>
+        <v>1569.98</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1042.730000</v>
+        <v>-1042.73</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>19080.640649</v>
+        <v>19080.640649000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.300178</v>
+        <v>5.3001779999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1982.440000</v>
+        <v>1982.44</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1596.500000</v>
+        <v>-1596.5</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>18908.852763</v>
+        <v>18908.852762999999</v>
       </c>
       <c r="B17" s="1">
         <v>5.252459</v>
       </c>
       <c r="C17" s="1">
-        <v>897.866000</v>
+        <v>897.86599999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.325000</v>
+        <v>-195.32499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>18919.228605</v>
       </c>
       <c r="G17" s="1">
-        <v>5.255341</v>
+        <v>5.2553409999999996</v>
       </c>
       <c r="H17" s="1">
-        <v>914.809000</v>
+        <v>914.80899999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.576000</v>
+        <v>-165.57599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>18929.443185</v>
       </c>
       <c r="L17" s="1">
-        <v>5.258179</v>
+        <v>5.2581790000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>936.510000</v>
+        <v>936.51</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.612000</v>
+        <v>-118.61199999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>18939.610193</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.261003</v>
+        <v>5.2610029999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>942.963000</v>
+        <v>942.96299999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.266000</v>
+        <v>-103.26600000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>18949.439397</v>
+        <v>18949.439396999998</v>
       </c>
       <c r="V17" s="1">
-        <v>5.263733</v>
+        <v>5.2637330000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>949.238000</v>
+        <v>949.23800000000006</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.739800</v>
+        <v>-89.739800000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>18959.655529</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.266571</v>
+        <v>5.2665709999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>956.268000</v>
+        <v>956.26800000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.377700</v>
+        <v>-80.377700000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>18970.161290</v>
+        <v>18970.16129</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.269489</v>
+        <v>5.2694890000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>961.317000</v>
+        <v>961.31700000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.079200</v>
+        <v>-80.0792</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>18980.701245</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.272417</v>
+        <v>5.2724169999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>969.278000</v>
+        <v>969.27800000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.210500</v>
+        <v>-88.210499999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>18991.585487</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.275440</v>
+        <v>5.2754399999999997</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.615000</v>
+        <v>978.61500000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.222000</v>
+        <v>-103.22199999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>19002.661119</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.278517</v>
+        <v>5.2785169999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.174000</v>
+        <v>990.17399999999998</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.117000</v>
+        <v>-125.117</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>19013.770551</v>
+        <v>19013.770551000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.281603</v>
+        <v>5.2816029999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.903000</v>
+        <v>999.90300000000002</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.043000</v>
+        <v>-144.04300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>19025.335762</v>
+        <v>19025.335761999999</v>
       </c>
       <c r="BE17" s="1">
         <v>5.284815</v>
       </c>
       <c r="BF17" s="1">
-        <v>1045.680000</v>
+        <v>1045.68</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.633000</v>
+        <v>-229.63300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>19036.406435</v>
+        <v>19036.406435000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.287891</v>
+        <v>5.2878910000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1125.770000</v>
+        <v>1125.77</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.788000</v>
+        <v>-366.78800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>19047.140853</v>
+        <v>19047.140853000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.290872</v>
+        <v>5.2908720000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1257.910000</v>
+        <v>1257.9100000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.961000</v>
+        <v>-578.96100000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>19058.019607</v>
+        <v>19058.019606999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.293894</v>
+        <v>5.2938939999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1406.630000</v>
+        <v>1406.63</v>
       </c>
       <c r="BV17" s="1">
-        <v>-805.533000</v>
+        <v>-805.53300000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>19068.786793</v>
+        <v>19068.786792999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.296885</v>
+        <v>5.2968849999999996</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1569.840000</v>
+        <v>1569.84</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1042.750000</v>
+        <v>-1042.75</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>19081.155992</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.300321</v>
+        <v>5.3003210000000003</v>
       </c>
       <c r="CE17" s="1">
-        <v>1983.880000</v>
+        <v>1983.88</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1596.860000</v>
+        <v>-1596.86</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>18909.139984</v>
+        <v>18909.139984000001</v>
       </c>
       <c r="B18" s="1">
-        <v>5.252539</v>
+        <v>5.2525389999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>897.683000</v>
+        <v>897.68299999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.394000</v>
+        <v>-195.39400000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>18919.575277</v>
       </c>
       <c r="G18" s="1">
-        <v>5.255438</v>
+        <v>5.2554379999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>914.728000</v>
+        <v>914.72799999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.023000</v>
+        <v>-165.023</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>18929.786943</v>
+        <v>18929.786942999999</v>
       </c>
       <c r="L18" s="1">
-        <v>5.258274</v>
+        <v>5.2582740000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>936.607000</v>
+        <v>936.60699999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.443000</v>
+        <v>-118.443</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>18939.961346</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.261100</v>
+        <v>5.2610999999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>942.976000</v>
+        <v>942.976</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.303000</v>
+        <v>-103.303</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>18950.125887</v>
+        <v>18950.125886999998</v>
       </c>
       <c r="V18" s="1">
-        <v>5.263924</v>
+        <v>5.2639240000000003</v>
       </c>
       <c r="W18" s="1">
-        <v>949.300000</v>
+        <v>949.3</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.628200</v>
+        <v>-89.628200000000007</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>18960.351388</v>
+        <v>18960.351387999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.266764</v>
+        <v>5.2667640000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>956.347000</v>
+        <v>956.34699999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.447400</v>
+        <v>-80.447400000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>18970.505977</v>
+        <v>18970.505977000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.269585</v>
+        <v>5.2695850000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>961.314000</v>
+        <v>961.31399999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.148600</v>
+        <v>-80.148600000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>18981.071797</v>
+        <v>18981.071797000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.272520</v>
+        <v>5.2725200000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>969.272000</v>
+        <v>969.27200000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.186000</v>
+        <v>-88.186000000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>18991.945549</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.275540</v>
+        <v>5.2755400000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.606000</v>
+        <v>978.60599999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.208000</v>
+        <v>-103.208</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>19003.321294</v>
+        <v>19003.321294000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.278700</v>
+        <v>5.2786999999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.181000</v>
+        <v>990.18100000000004</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.117000</v>
+        <v>-125.117</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>19014.503103</v>
+        <v>19014.503102999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.281806</v>
+        <v>5.2818059999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.907000</v>
+        <v>999.90700000000004</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.040000</v>
+        <v>-144.04</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>19025.797506</v>
+        <v>19025.797505999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.284944</v>
+        <v>5.2849440000000003</v>
       </c>
       <c r="BF18" s="1">
-        <v>1045.670000</v>
+        <v>1045.67</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.617000</v>
+        <v>-229.61699999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>19036.806245</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.288002</v>
+        <v>5.2880019999999996</v>
       </c>
       <c r="BK18" s="1">
-        <v>1125.760000</v>
+        <v>1125.76</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.783000</v>
+        <v>-366.78300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>19047.552073</v>
+        <v>19047.552072999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.290987</v>
+        <v>5.2909870000000003</v>
       </c>
       <c r="BP18" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.964000</v>
+        <v>-578.96400000000006</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>19058.445671</v>
+        <v>19058.445671000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.294013</v>
+        <v>5.2940129999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>1406.760000</v>
+        <v>1406.76</v>
       </c>
       <c r="BV18" s="1">
-        <v>-805.646000</v>
+        <v>-805.64599999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>19069.232698</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.297009</v>
+        <v>5.2970090000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1569.720000</v>
+        <v>1569.72</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1042.890000</v>
+        <v>-1042.8900000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>19081.677783</v>
+        <v>19081.677782999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.300466</v>
+        <v>5.3004660000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1984.620000</v>
+        <v>1984.62</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1595.680000</v>
+        <v>-1595.68</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>18909.484172</v>
       </c>
       <c r="B19" s="1">
-        <v>5.252634</v>
+        <v>5.2526339999999996</v>
       </c>
       <c r="C19" s="1">
-        <v>897.899000</v>
+        <v>897.899</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.593000</v>
+        <v>-195.59299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>18919.922477</v>
       </c>
       <c r="G19" s="1">
-        <v>5.255534</v>
+        <v>5.2555339999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>914.714000</v>
+        <v>914.71400000000006</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.361000</v>
+        <v>-165.36099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>18930.140063</v>
+        <v>18930.140062999999</v>
       </c>
       <c r="L19" s="1">
-        <v>5.258372</v>
+        <v>5.2583719999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>936.681000</v>
+        <v>936.68100000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.586000</v>
+        <v>-118.586</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>18940.660242</v>
+        <v>18940.660242000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.261295</v>
+        <v>5.2612949999999996</v>
       </c>
       <c r="R19" s="1">
-        <v>942.966000</v>
+        <v>942.96600000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.305000</v>
+        <v>-103.30500000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>18950.468596</v>
+        <v>18950.468595999999</v>
       </c>
       <c r="V19" s="1">
-        <v>5.264019</v>
+        <v>5.2640190000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>949.207000</v>
+        <v>949.20699999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.721400</v>
+        <v>-89.721400000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>18960.700072</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.266861</v>
+        <v>5.2668609999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>956.322000</v>
+        <v>956.322</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.334400</v>
+        <v>-80.334400000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>18970.847753</v>
+        <v>18970.847752999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.269680</v>
+        <v>5.2696800000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>961.331000</v>
+        <v>961.33100000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.190000</v>
+        <v>-80.19</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>18981.717052</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.272699</v>
+        <v>5.2726990000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>969.259000</v>
+        <v>969.25900000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.152500</v>
+        <v>-88.152500000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>18992.607708</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.275724</v>
+        <v>5.2757240000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.615000</v>
+        <v>978.61500000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.219000</v>
+        <v>-103.21899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>19003.787534</v>
+        <v>19003.787533999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.278830</v>
+        <v>5.2788300000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.160000</v>
+        <v>990.16</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.120000</v>
+        <v>-125.12</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>19014.845344</v>
+        <v>19014.845344000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.281901</v>
+        <v>5.2819010000000004</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.897000</v>
+        <v>999.89700000000005</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.019000</v>
+        <v>-144.01900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>19026.158096</v>
+        <v>19026.158095999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.285044</v>
+        <v>5.2850440000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1045.700000</v>
+        <v>1045.7</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.645000</v>
+        <v>-229.64500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>19037.179734</v>
+        <v>19037.179734000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.288105</v>
+        <v>5.2881049999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1125.740000</v>
+        <v>1125.74</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.771000</v>
+        <v>-366.77100000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>19048.121941</v>
+        <v>19048.121941000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.291145</v>
+        <v>5.2911450000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.905000</v>
+        <v>-578.90499999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>19058.868934</v>
+        <v>19058.868933999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.294130</v>
+        <v>5.29413</v>
       </c>
       <c r="BU19" s="1">
-        <v>1406.840000</v>
+        <v>1406.84</v>
       </c>
       <c r="BV19" s="1">
-        <v>-805.741000</v>
+        <v>-805.74099999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>19069.653303</v>
+        <v>19069.653302999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.297126</v>
+        <v>5.2971259999999996</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1569.900000</v>
+        <v>1569.9</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1042.720000</v>
+        <v>-1042.72</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>19082.191174</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.300609</v>
+        <v>5.3006089999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>1984.670000</v>
+        <v>1984.67</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1596.200000</v>
+        <v>-1596.2</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>18909.823433</v>
+        <v>18909.823433000001</v>
       </c>
       <c r="B20" s="1">
-        <v>5.252729</v>
+        <v>5.2527290000000004</v>
       </c>
       <c r="C20" s="1">
-        <v>897.841000</v>
+        <v>897.84100000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.361000</v>
+        <v>-195.36099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>18920.615420</v>
+        <v>18920.615419999998</v>
       </c>
       <c r="G20" s="1">
-        <v>5.255727</v>
+        <v>5.2557270000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>914.910000</v>
+        <v>914.91</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.684000</v>
+        <v>-165.684</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>18930.836477</v>
+        <v>18930.836477000001</v>
       </c>
       <c r="L20" s="1">
-        <v>5.258566</v>
+        <v>5.2585660000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>936.501000</v>
+        <v>936.50099999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.458000</v>
+        <v>-118.458</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>18941.006912</v>
+        <v>18941.006912000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.261391</v>
+        <v>5.2613909999999997</v>
       </c>
       <c r="R20" s="1">
-        <v>942.956000</v>
+        <v>942.95600000000002</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.315000</v>
+        <v>-103.315</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>18950.811828</v>
+        <v>18950.811828000002</v>
       </c>
       <c r="V20" s="1">
-        <v>5.264114</v>
+        <v>5.2641140000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>949.228000</v>
+        <v>949.22799999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.741600</v>
+        <v>-89.741600000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>18961.051735</v>
+        <v>18961.051735000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.266959</v>
+        <v>5.2669589999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>956.287000</v>
+        <v>956.28700000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.383900</v>
+        <v>-80.383899999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>18971.492520</v>
+        <v>18971.49252</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.269859</v>
+        <v>5.2698590000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>961.290000</v>
+        <v>961.29</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.142600</v>
+        <v>-80.142600000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>18982.106906</v>
+        <v>18982.106906000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.272807</v>
+        <v>5.2728070000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>969.239000</v>
+        <v>969.23900000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.198100</v>
+        <v>-88.198099999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>18993.060097</v>
+        <v>18993.060097000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.275850</v>
+        <v>5.2758500000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.614000</v>
+        <v>978.61400000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.203000</v>
+        <v>-103.203</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>19004.153581</v>
+        <v>19004.153580999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.278932</v>
+        <v>5.2789320000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.142000</v>
+        <v>990.14200000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.114000</v>
+        <v>-125.114</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>19015.204448</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.282001</v>
+        <v>5.2820010000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.906000</v>
+        <v>999.90599999999995</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.052000</v>
+        <v>-144.05199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>19026.514225</v>
+        <v>19026.514224999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.285143</v>
+        <v>5.2851429999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1045.680000</v>
+        <v>1045.68</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.614000</v>
+        <v>-229.614</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>19037.593889</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.288221</v>
+        <v>5.2882210000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1125.750000</v>
+        <v>1125.75</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.783000</v>
+        <v>-366.78300000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>19048.766738</v>
+        <v>19048.766737999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.291324</v>
+        <v>5.2913240000000004</v>
       </c>
       <c r="BP20" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.986000</v>
+        <v>-578.98599999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>19059.277989</v>
+        <v>19059.277988999998</v>
       </c>
       <c r="BT20" s="1">
         <v>5.294244</v>
       </c>
       <c r="BU20" s="1">
-        <v>1406.900000</v>
+        <v>1406.9</v>
       </c>
       <c r="BV20" s="1">
-        <v>-805.838000</v>
+        <v>-805.83799999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>19070.078375</v>
+        <v>19070.078375000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.297244</v>
+        <v>5.2972440000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1569.930000</v>
+        <v>1569.93</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1042.820000</v>
+        <v>-1042.82</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>19082.742230</v>
+        <v>19082.74223</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.300762</v>
+        <v>5.3007619999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1984.120000</v>
+        <v>1984.12</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1597.200000</v>
+        <v>-1597.2</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>18910.506948</v>
+        <v>18910.506947999998</v>
       </c>
       <c r="B21" s="1">
-        <v>5.252919</v>
+        <v>5.2529190000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>897.799000</v>
+        <v>897.79899999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.442000</v>
+        <v>-195.44200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>18920.961099</v>
       </c>
       <c r="G21" s="1">
-        <v>5.255823</v>
+        <v>5.2558230000000004</v>
       </c>
       <c r="H21" s="1">
-        <v>914.414000</v>
+        <v>914.41399999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.494000</v>
+        <v>-165.494</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>18931.177238</v>
       </c>
       <c r="L21" s="1">
-        <v>5.258660</v>
+        <v>5.2586599999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>936.528000</v>
+        <v>936.52800000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.574000</v>
+        <v>-118.574</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>18941.356625</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.261488</v>
+        <v>5.2614879999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>942.927000</v>
+        <v>942.92700000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.284000</v>
+        <v>-103.28400000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>18951.450179</v>
+        <v>18951.450178999999</v>
       </c>
       <c r="V21" s="1">
-        <v>5.264292</v>
+        <v>5.2642920000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>949.218000</v>
+        <v>949.21799999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.608600</v>
+        <v>-89.608599999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>18961.705989</v>
+        <v>18961.705988999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.267141</v>
+        <v>5.2671409999999996</v>
       </c>
       <c r="AB21" s="1">
-        <v>956.388000</v>
+        <v>956.38800000000003</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.414500</v>
+        <v>-80.414500000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>18971.877416</v>
+        <v>18971.877415999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.269966</v>
+        <v>5.2699660000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>961.290000</v>
+        <v>961.29</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.172500</v>
+        <v>-80.172499999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>18982.453114</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.272904</v>
+        <v>5.2729039999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>969.242000</v>
+        <v>969.24199999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.155000</v>
+        <v>-88.155000000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>18993.419163</v>
+        <v>18993.419162999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.275950</v>
+        <v>5.2759499999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.605000</v>
+        <v>978.60500000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.219000</v>
+        <v>-103.21899999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>19004.517182</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.279033</v>
+        <v>5.2790330000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.141000</v>
+        <v>990.14099999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.111000</v>
+        <v>-125.111</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>19015.608190</v>
+        <v>19015.608189999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.282113</v>
+        <v>5.2821129999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.880000</v>
+        <v>999.88</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.045000</v>
+        <v>-144.04499999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>19026.927424</v>
+        <v>19026.927424000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.285258</v>
+        <v>5.2852579999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1045.690000</v>
+        <v>1045.69</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.631000</v>
+        <v>-229.631</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>19037.956928</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.288321</v>
+        <v>5.2883209999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1125.780000</v>
+        <v>1125.78</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.756000</v>
+        <v>-366.75599999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>19049.180401</v>
+        <v>19049.180401000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.291439</v>
+        <v>5.2914389999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1257.970000</v>
+        <v>1257.97</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.967000</v>
+        <v>-578.96699999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>19059.693605</v>
@@ -5574,996 +5990,996 @@
         <v>5.294359</v>
       </c>
       <c r="BU21" s="1">
-        <v>1406.940000</v>
+        <v>1406.94</v>
       </c>
       <c r="BV21" s="1">
-        <v>-805.929000</v>
+        <v>-805.92899999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>19070.523255</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.297368</v>
+        <v>5.2973679999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1569.810000</v>
+        <v>1569.81</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1042.850000</v>
+        <v>-1042.8499999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>19083.272422</v>
+        <v>19083.272421999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.300909</v>
+        <v>5.3009089999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1984.440000</v>
+        <v>1984.44</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1595.230000</v>
+        <v>-1595.23</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>18910.848876</v>
       </c>
       <c r="B22" s="1">
-        <v>5.253014</v>
+        <v>5.2530140000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>897.790000</v>
+        <v>897.79</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.440000</v>
+        <v>-195.44</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>18921.304827</v>
       </c>
       <c r="G22" s="1">
-        <v>5.255918</v>
+        <v>5.2559180000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>914.575000</v>
+        <v>914.57500000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.401000</v>
+        <v>-165.40100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>18931.834894</v>
       </c>
       <c r="L22" s="1">
-        <v>5.258843</v>
+        <v>5.2588429999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>936.685000</v>
+        <v>936.68499999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.288000</v>
+        <v>-118.288</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>18942.006364</v>
+        <v>18942.006364000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.261668</v>
+        <v>5.2616680000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>942.928000</v>
+        <v>942.928</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.265000</v>
+        <v>-103.265</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>18951.842515</v>
       </c>
       <c r="V22" s="1">
-        <v>5.264401</v>
+        <v>5.2644010000000003</v>
       </c>
       <c r="W22" s="1">
-        <v>949.245000</v>
+        <v>949.245</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.685200</v>
+        <v>-89.685199999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>18962.097302</v>
+        <v>18962.097301999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.267249</v>
+        <v>5.2672489999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>956.318000</v>
+        <v>956.31799999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.496600</v>
+        <v>-80.496600000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>18972.221673</v>
       </c>
       <c r="AF22" s="1">
-        <v>5.270062</v>
+        <v>5.2700620000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>961.311000</v>
+        <v>961.31100000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.162300</v>
+        <v>-80.162300000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>18982.800314</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.273000</v>
+        <v>5.2729999999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>969.254000</v>
+        <v>969.25400000000002</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.146500</v>
+        <v>-88.146500000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>18993.780748</v>
+        <v>18993.780748000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.276050</v>
+        <v>5.2760499999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.614000</v>
+        <v>978.61400000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.219000</v>
+        <v>-103.21899999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>19004.937292</v>
+        <v>19004.937291999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.279149</v>
+        <v>5.2791490000000003</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.173000</v>
+        <v>990.173</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.120000</v>
+        <v>-125.12</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>19015.922871</v>
+        <v>19015.922870999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.282201</v>
+        <v>5.2822009999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.909000</v>
+        <v>999.90899999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.033000</v>
+        <v>-144.03299999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>19027.243375</v>
+        <v>19027.243374999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.285345</v>
+        <v>5.2853450000000004</v>
       </c>
       <c r="BF22" s="1">
-        <v>1045.670000</v>
+        <v>1045.67</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.636000</v>
+        <v>-229.636</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>19038.333888</v>
+        <v>19038.333888000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.288426</v>
+        <v>5.2884260000000003</v>
       </c>
       <c r="BK22" s="1">
-        <v>1125.740000</v>
+        <v>1125.74</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.785000</v>
+        <v>-366.78500000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>19049.577698</v>
+        <v>19049.577698000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.291549</v>
+        <v>5.2915489999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.976000</v>
+        <v>-578.976</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>19060.106802</v>
+        <v>19060.106801999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.294474</v>
+        <v>5.2944740000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1406.920000</v>
+        <v>1406.92</v>
       </c>
       <c r="BV22" s="1">
-        <v>-805.990000</v>
+        <v>-805.99</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>19070.958741</v>
+        <v>19070.958740999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.297489</v>
+        <v>5.2974889999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1569.820000</v>
+        <v>1569.82</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1042.760000</v>
+        <v>-1042.76</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>19083.793221</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.301054</v>
+        <v>5.3010539999999997</v>
       </c>
       <c r="CE22" s="1">
-        <v>1982.350000</v>
+        <v>1982.35</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1596.230000</v>
+        <v>-1596.23</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>18911.190904</v>
+        <v>18911.190903999999</v>
       </c>
       <c r="B23" s="1">
-        <v>5.253109</v>
+        <v>5.2531090000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>897.934000</v>
+        <v>897.93399999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.394000</v>
+        <v>-195.39400000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>18921.952601</v>
+        <v>18921.952601000001</v>
       </c>
       <c r="G23" s="1">
-        <v>5.256098</v>
+        <v>5.2560979999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>914.592000</v>
+        <v>914.59199999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.586000</v>
+        <v>-165.58600000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>18932.216316</v>
+        <v>18932.216315999998</v>
       </c>
       <c r="L23" s="1">
-        <v>5.258949</v>
+        <v>5.2589490000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>936.410000</v>
+        <v>936.41</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.620000</v>
+        <v>-118.62</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>18942.399713</v>
+        <v>18942.399712999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.261778</v>
+        <v>5.2617779999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>942.963000</v>
+        <v>942.96299999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.279000</v>
+        <v>-103.279</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>18952.184289</v>
+        <v>18952.184289000001</v>
       </c>
       <c r="V23" s="1">
-        <v>5.264496</v>
+        <v>5.2644960000000003</v>
       </c>
       <c r="W23" s="1">
-        <v>949.294000</v>
+        <v>949.29399999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.701600</v>
+        <v>-89.701599999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>18962.442516</v>
+        <v>18962.442515999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.267345</v>
+        <v>5.2673449999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>956.436000</v>
+        <v>956.43600000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.480500</v>
+        <v>-80.480500000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>18972.569367</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.270158</v>
+        <v>5.2701580000000003</v>
       </c>
       <c r="AG23" s="1">
-        <v>961.324000</v>
+        <v>961.32399999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.141700</v>
+        <v>-80.1417</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>18983.211032</v>
+        <v>18983.211031999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.273114</v>
+        <v>5.2731139999999996</v>
       </c>
       <c r="AL23" s="1">
-        <v>969.225000</v>
+        <v>969.22500000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.156500</v>
+        <v>-88.156499999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>18994.204331</v>
+        <v>18994.204331000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.276168</v>
+        <v>5.2761680000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.619000</v>
+        <v>978.61900000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.227000</v>
+        <v>-103.227</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>19005.245275</v>
+        <v>19005.245275000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.279235</v>
+        <v>5.2792349999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.164000</v>
+        <v>990.16399999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.123000</v>
+        <v>-125.123</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>19016.279775</v>
+        <v>19016.279774999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.282300</v>
+        <v>5.2823000000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.892000</v>
+        <v>999.89200000000005</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.048000</v>
+        <v>-144.048</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>19027.603438</v>
+        <v>19027.603437999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.285445</v>
+        <v>5.2854450000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1045.690000</v>
+        <v>1045.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.637000</v>
+        <v>-229.637</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>19038.709393</v>
+        <v>19038.709393000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.288530</v>
+        <v>5.2885299999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1125.750000</v>
+        <v>1125.75</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.792000</v>
+        <v>-366.79199999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>19050.005744</v>
+        <v>19050.005743999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.291668</v>
+        <v>5.2916679999999996</v>
       </c>
       <c r="BP23" s="1">
-        <v>1257.970000</v>
+        <v>1257.97</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.946000</v>
+        <v>-578.94600000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>19060.521427</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.294589</v>
+        <v>5.2945890000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1406.890000</v>
+        <v>1406.89</v>
       </c>
       <c r="BV23" s="1">
-        <v>-806.154000</v>
+        <v>-806.154</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>19071.381828</v>
+        <v>19071.381828000001</v>
       </c>
       <c r="BY23" s="1">
         <v>5.297606</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1570.020000</v>
+        <v>1570.02</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1042.930000</v>
+        <v>-1042.93</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>19084.331379</v>
+        <v>19084.331378999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.301203</v>
+        <v>5.3012030000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1984.390000</v>
+        <v>1984.39</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1596.880000</v>
+        <v>-1596.88</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>18911.845128</v>
+        <v>18911.845128000001</v>
       </c>
       <c r="B24" s="1">
-        <v>5.253290</v>
+        <v>5.2532899999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>897.877000</v>
+        <v>897.87699999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.539000</v>
+        <v>-195.53899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>18922.336010</v>
+        <v>18922.336009999999</v>
       </c>
       <c r="G24" s="1">
-        <v>5.256204</v>
+        <v>5.2562040000000003</v>
       </c>
       <c r="H24" s="1">
-        <v>914.586000</v>
+        <v>914.58600000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.468000</v>
+        <v>-165.46799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>18932.561037</v>
+        <v>18932.561036999999</v>
       </c>
       <c r="L24" s="1">
-        <v>5.259045</v>
+        <v>5.2590450000000004</v>
       </c>
       <c r="M24" s="1">
-        <v>936.479000</v>
+        <v>936.47900000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.392000</v>
+        <v>-118.392</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>18942.740926</v>
+        <v>18942.740925999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.261872</v>
+        <v>5.2618720000000003</v>
       </c>
       <c r="R24" s="1">
-        <v>942.971000</v>
+        <v>942.971</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.288000</v>
+        <v>-103.288</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>18952.529506</v>
+        <v>18952.529505999999</v>
       </c>
       <c r="V24" s="1">
-        <v>5.264592</v>
+        <v>5.2645920000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>949.256000</v>
+        <v>949.25599999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.695900</v>
+        <v>-89.695899999999995</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>18962.793684</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.267443</v>
+        <v>5.2674430000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>956.330000</v>
+        <v>956.33</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.428700</v>
+        <v>-80.428700000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>18972.986470</v>
+        <v>18972.98647</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.270274</v>
+        <v>5.2702739999999997</v>
       </c>
       <c r="AG24" s="1">
-        <v>961.330000</v>
+        <v>961.33</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.156400</v>
+        <v>-80.156400000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>18983.508105</v>
+        <v>18983.508105000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.273197</v>
+        <v>5.2731969999999997</v>
       </c>
       <c r="AL24" s="1">
-        <v>969.211000</v>
+        <v>969.21100000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.065200</v>
+        <v>-88.065200000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>18994.501963</v>
+        <v>18994.501962999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.276251</v>
+        <v>5.2762510000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>978.603000</v>
+        <v>978.60299999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.220000</v>
+        <v>-103.22</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>19005.610860</v>
+        <v>19005.610860000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.279336</v>
+        <v>5.2793359999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.161000</v>
+        <v>990.16099999999994</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.107000</v>
+        <v>-125.107</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>19016.637389</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.282399</v>
+        <v>5.2823989999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.896000</v>
+        <v>999.89599999999996</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.032000</v>
+        <v>-144.03200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>19027.961550</v>
+        <v>19027.96155</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.285545</v>
+        <v>5.2855449999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1045.690000</v>
+        <v>1045.69</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.629000</v>
+        <v>-229.62899999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>19039.458815</v>
+        <v>19039.458815000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.288739</v>
+        <v>5.2887389999999996</v>
       </c>
       <c r="BK24" s="1">
-        <v>1125.730000</v>
+        <v>1125.73</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.801000</v>
+        <v>-366.80099999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>19050.399074</v>
+        <v>19050.399074000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.291778</v>
+        <v>5.2917779999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.994000</v>
+        <v>-578.99400000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>19060.937570</v>
+        <v>19060.937569999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.294705</v>
+        <v>5.2947050000000004</v>
       </c>
       <c r="BU24" s="1">
-        <v>1406.770000</v>
+        <v>1406.77</v>
       </c>
       <c r="BV24" s="1">
-        <v>-806.219000</v>
+        <v>-806.21900000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>19071.803963</v>
+        <v>19071.803962999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.297723</v>
+        <v>5.2977230000000004</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1569.920000</v>
+        <v>1569.92</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1042.980000</v>
+        <v>-1042.98</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>19085.178082</v>
+        <v>19085.178081999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.301438</v>
+        <v>5.3014380000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1982.500000</v>
+        <v>1982.5</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1596.410000</v>
+        <v>-1596.41</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>18912.207206</v>
+        <v>18912.207205999999</v>
       </c>
       <c r="B25" s="1">
-        <v>5.253391</v>
+        <v>5.2533909999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>897.800000</v>
+        <v>897.8</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.649000</v>
+        <v>-195.649</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>18922.681226</v>
+        <v>18922.681226000001</v>
       </c>
       <c r="G25" s="1">
-        <v>5.256300</v>
+        <v>5.2563000000000004</v>
       </c>
       <c r="H25" s="1">
-        <v>914.788000</v>
+        <v>914.78800000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.716000</v>
+        <v>-165.71600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>18932.906251</v>
       </c>
       <c r="L25" s="1">
-        <v>5.259141</v>
+        <v>5.2591409999999996</v>
       </c>
       <c r="M25" s="1">
-        <v>936.480000</v>
+        <v>936.48</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.429000</v>
+        <v>-118.429</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>18943.100526</v>
+        <v>18943.100525999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.261972</v>
+        <v>5.2619720000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>942.954000</v>
+        <v>942.95399999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.312000</v>
+        <v>-103.312</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>18952.950113</v>
+        <v>18952.950112999999</v>
       </c>
       <c r="V25" s="1">
-        <v>5.264708</v>
+        <v>5.2647079999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>949.256000</v>
+        <v>949.25599999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.754100</v>
+        <v>-89.754099999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>18963.222760</v>
+        <v>18963.222760000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.267562</v>
+        <v>5.2675619999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>956.342000</v>
+        <v>956.34199999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.359500</v>
+        <v>-80.359499999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>18973.273158</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.270354</v>
+        <v>5.2703540000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>961.313000</v>
+        <v>961.31299999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.174300</v>
+        <v>-80.174300000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>18983.859068</v>
+        <v>18983.859068000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.273294</v>
+        <v>5.2732939999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>969.285000</v>
+        <v>969.28499999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.001700</v>
+        <v>-88.0017</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>18994.861529</v>
+        <v>18994.861529000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.276350</v>
+        <v>5.2763499999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.604000</v>
+        <v>978.60400000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.224000</v>
+        <v>-103.224</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>19005.976378</v>
+        <v>19005.976377999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.279438</v>
+        <v>5.2794379999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.179000</v>
+        <v>990.17899999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.110000</v>
+        <v>-125.11</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>19017.361084</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.282600</v>
+        <v>5.2826000000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.906000</v>
+        <v>999.90599999999995</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.032000</v>
+        <v>-144.03200000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>19028.686732</v>
+        <v>19028.686731999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.285746</v>
+        <v>5.2857459999999996</v>
       </c>
       <c r="BF25" s="1">
-        <v>1045.690000</v>
+        <v>1045.69</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.628000</v>
+        <v>-229.62799999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>19039.836303</v>
@@ -6572,332 +6988,333 @@
         <v>5.288843</v>
       </c>
       <c r="BK25" s="1">
-        <v>1125.750000</v>
+        <v>1125.75</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.788000</v>
+        <v>-366.78800000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>19050.820673</v>
+        <v>19050.820672999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.291895</v>
+        <v>5.2918950000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1257.920000</v>
+        <v>1257.92</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.957000</v>
+        <v>-578.95699999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>19061.348258</v>
+        <v>19061.348258000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.294819</v>
+        <v>5.2948190000000004</v>
       </c>
       <c r="BU25" s="1">
-        <v>1406.670000</v>
+        <v>1406.67</v>
       </c>
       <c r="BV25" s="1">
-        <v>-806.293000</v>
+        <v>-806.29300000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>19072.523619</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.297923</v>
+        <v>5.2979229999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1569.960000</v>
+        <v>1569.96</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1042.760000</v>
+        <v>-1042.76</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>19085.410674</v>
+        <v>19085.410673999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.301503</v>
+        <v>5.3015030000000003</v>
       </c>
       <c r="CE25" s="1">
-        <v>1982.660000</v>
+        <v>1982.66</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1596.270000</v>
+        <v>-1596.27</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>18912.556390</v>
+        <v>18912.556390000002</v>
       </c>
       <c r="B26" s="1">
-        <v>5.253488</v>
+        <v>5.2534879999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>898.055000</v>
+        <v>898.05499999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.521000</v>
+        <v>-195.52099999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>18923.026474</v>
+        <v>18923.026473999998</v>
       </c>
       <c r="G26" s="1">
-        <v>5.256396</v>
+        <v>5.2563959999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>914.469000</v>
+        <v>914.46900000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.854000</v>
+        <v>-165.85400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>18933.319418</v>
+        <v>18933.319417999999</v>
       </c>
       <c r="L26" s="1">
-        <v>5.259255</v>
+        <v>5.2592549999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>936.752000</v>
+        <v>936.75199999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.508000</v>
+        <v>-118.508</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>18943.509727</v>
+        <v>18943.509727000001</v>
       </c>
       <c r="Q26" s="1">
         <v>5.262086</v>
       </c>
       <c r="R26" s="1">
-        <v>942.932000</v>
+        <v>942.93200000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.292000</v>
+        <v>-103.292</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>18953.239776</v>
+        <v>18953.239775999999</v>
       </c>
       <c r="V26" s="1">
-        <v>5.264789</v>
+        <v>5.2647890000000004</v>
       </c>
       <c r="W26" s="1">
-        <v>949.253000</v>
+        <v>949.25300000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.628800</v>
+        <v>-89.628799999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>18963.501475</v>
+        <v>18963.501475000001</v>
       </c>
       <c r="AA26" s="1">
         <v>5.267639</v>
       </c>
       <c r="AB26" s="1">
-        <v>956.335000</v>
+        <v>956.33500000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.374600</v>
+        <v>-80.374600000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>18973.616917</v>
+        <v>18973.616916999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.270449</v>
+        <v>5.2704490000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>961.326000</v>
+        <v>961.32600000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.149200</v>
+        <v>-80.149199999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>18984.208456</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.273391</v>
+        <v>5.2733910000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>969.326000</v>
+        <v>969.32600000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.947100</v>
+        <v>-87.947100000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>18995.221129</v>
+        <v>18995.221129000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.276450</v>
+        <v>5.2764499999999996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.620000</v>
+        <v>978.62</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.203000</v>
+        <v>-103.203</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>19006.705498</v>
+        <v>19006.705497999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.279640</v>
+        <v>5.2796399999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.165000</v>
+        <v>990.16499999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.123000</v>
+        <v>-125.123</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>19017.737515</v>
+        <v>19017.737515000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>5.282705</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.889000</v>
+        <v>999.88900000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.050000</v>
+        <v>-144.05000000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>19029.071598</v>
+        <v>19029.071597999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.285853</v>
+        <v>5.2858530000000004</v>
       </c>
       <c r="BF26" s="1">
-        <v>1045.670000</v>
+        <v>1045.67</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.622000</v>
+        <v>-229.62200000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>19040.209789</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.288947</v>
+        <v>5.2889470000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1125.760000</v>
+        <v>1125.76</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.773000</v>
+        <v>-366.77300000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>19051.507669</v>
+        <v>19051.507668999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.292085</v>
+        <v>5.2920850000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1257.970000</v>
+        <v>1257.97</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.954000</v>
+        <v>-578.95399999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>19062.074435</v>
+        <v>19062.074434999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.295021</v>
+        <v>5.2950210000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1406.540000</v>
+        <v>1406.54</v>
       </c>
       <c r="BV26" s="1">
-        <v>-806.253000</v>
+        <v>-806.25300000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>19072.643651</v>
+        <v>19072.643650999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.297957</v>
+        <v>5.2979570000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1569.800000</v>
+        <v>1569.8</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1042.840000</v>
+        <v>-1042.8399999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>19085.930481</v>
+        <v>19085.930480999999</v>
       </c>
       <c r="CD26" s="1">
         <v>5.301647</v>
       </c>
       <c r="CE26" s="1">
-        <v>1983.870000</v>
+        <v>1983.87</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1596.920000</v>
+        <v>-1596.92</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>